--- a/Boom/Excel/Localization.xlsx
+++ b/Boom/Excel/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817C2EC1-C04A-4FB9-902A-6892A207CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861096B7-D431-44D5-B83A-3E3EDE73C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="2360" windowWidth="14230" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9460" yWindow="4060" windowWidth="21810" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Gem" sheetId="6" r:id="rId4"/>
     <sheet name="奇迹物件" sheetId="2" r:id="rId5"/>
     <sheet name="Battle" sheetId="7" r:id="rId6"/>
+    <sheet name="NPC" sheetId="8" r:id="rId7"/>
+    <sheet name="Dia" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="459">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1061,6 +1063,810 @@
   </si>
   <si>
     <t>ui.skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1000.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人是你，但寄件人写着‘未来的我'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipient: You. Sender: "Future Me."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛名は君。差出人は「未来の私」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1001.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Never passed an exam, but the badge never faded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>試験は全滅。でもこのバッジは色褪せない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试从没及格，但徽章从未掉色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1003.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂鸦比公式多，某页还夹着半根火腿肠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More doodles than formulas. One page still has half a sausage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落書きだらけ、公式少なめ。ページにはソーセージ半分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1004.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章歪了三次，据说咒语是临时编的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The seal was crooked thrice. They say the spell was made up on the spot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印は三度ズレ、呪文は即興だったとか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1100.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说每块都有微弱的低语声，但没人愿意确认这点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each piece whispers—allegedly. No one’s brave enough to check.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小さな囁きが聞こえるらしい。誰も確かめないけど。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1101.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓缩的魔力碎片，据说可稳定地为法术提供支撑。——常见于禁术书页的压纸石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condensed arcane fragments, said to stabilize spells. Also handy for holding down forbidden tomes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力の結晶。術式を安定させるが、禁書の文鎮としても人気。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.1102.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种能同时承载力量与意志的珍贵材料，多用于塔尖、魔阵中枢、老教授的假牙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力と意志を同時に宿す貴重な素材。塔の頂、魔方陣の中心、そして教授の入れ歯にも使われる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A rare material that holds both power and will. Found in tower spires, ritual cores, and old professors’ dentures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弾丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.197.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第二颗子弹若命中敌人的护盾，则该子弹伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.197.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“刺耳的尖叫在第一发后激起恐惧，第二发才真正砸在他们脸上。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时，你的子弹的顺序会被随机打乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.196.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“某人抄错了战术笔记的页码，于是本来第三发该打Boss的……飞了。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.196.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击穿护盾后，下一发子弹伤害#Red(+3)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.163.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.163.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它不只沾上了护盾的碎片，还顺便粘走了它的一点能量。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.156.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，敌方护盾血量随机#Blue(±1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.156.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“没人知道它头转了几圈……也没人知道敌人怎么就突然多了一层护盾。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三颗子弹，50%概率宝石效果翻倍，30%概率宝石效果失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.129.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.129.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它原本是本火球术魔导手册……但作者拼错了‘火’和‘爆’。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.128.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个新房间：50%得#Yellow(4)#金币，50%失#Yellow(2)#金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“每换个地方它都发抖……不过抖着抖着，也许会掉出点什么。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.128.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.127.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，你镶嵌的宝石中，随机一个类型变为“共振”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.127.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“老师说‘变形’是高阶课程……它现在好像把伤害变得很有共鸣。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.123.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹被护盾挡住，下一颗子弹获得穿透#Blue(+1)# 伤害#Red(+2)#，仅生效一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.123.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒语未果，回音却化为利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.117.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第一、第三、第五颗子弹伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.117.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它从来都不亮完整一整秒，但够你看清要瞄哪。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.116.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第一颗子弹伤害#Red(-1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.116.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“上面写着：‘今天没练。’”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.99.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害#Red(+5)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.99.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“这不是某人写下的物品，而是「残响」意志本身的显现。它不被书写，也不可摧毁，只会在真正聆听的人心中回荡。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.76.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的最后一颗子弹本轮宝石全部失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.76.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“啪嗒——在你需要它的时候，它只冒出了一颗粉色泡泡。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.75.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.75.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若敌人战斗护盾≥2层，第1颗子弹穿透#Blue(+1)#,伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不到，也不意味着感知不到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.74.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.74.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹镶嵌一种类型宝石，则宝石效果#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它拒绝理解其他魔法体系，王者只需一种方式胜利。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.38.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.38.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有50%概率可以额外翻找一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“翻找的姿势也很关键。这是第五种。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第二颗子弹无视敌人的一层护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.37.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.37.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“扫帚带着奇怪的风，飞行轨迹有点歪，却总能钻过缝隙直冲要害。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.36.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.36.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害#Red(+2)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨念盘旋不去，汇聚在最后那一击中……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.26.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，你的第1~3颗子弹中随机一颗获得穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.26.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“穿这只靴子的人，至少总有一次能踩到正点上。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.15.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹镶嵌的宝石类型不重复，则宝石效果#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.15.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“书页泛着七彩微光，读者从未真正理解过内容，但每一页都恰好唤起正确的咒语。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在本局游戏中每失去一颗心，首颗子弹获得一次伤害#Red(+1)#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.10.desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo.10.flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇迹工坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级奇迹物件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇跡の工房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miracle Forge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弾丸を強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade Oddity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇跡物件を強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.upg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.upgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.mirforge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.upgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.upgmo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓肯教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大聪明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia.0.clay01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想种一整片黏土田园，种点小萝卜、苔藓，还有紫蔷薇~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土日常1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia.1.clay01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是这里没有阳光也没有泥巴，只有石砖和怪物……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia.2.clay01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快带我去塔顶吧，我要在那里开一片黏土花园！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanna grow a whole clay garden—carrots, moss, even purple roses~  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But there’s no sunlight here, no soil… just bricks and monsters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take me to the top of the tower! I’ll plant my clay flowerbed up there!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねえ、ねんど畑を作りたいの。にんじんとコケと、むらさきのバラも～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でもここ、日差しも土もないよ。あるのは石とモンスターばかり……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔のてっぺんに連れてって！そこでねんどの花園を咲かせるの！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全画面表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borderless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボーダーレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウィンドウモード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マスター音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効果音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.sfx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.fscreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.resolu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF6FC77-4365-45F2-8268-A60FB972ED8C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1463,58 +2269,324 @@
     </row>
     <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>251</v>
+        <v>433</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>238</v>
+        <v>423</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>249</v>
+        <v>432</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -1525,16 +2597,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2724DE-51AF-4512-AE00-C3B872D1341B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="4" width="20.9140625" customWidth="1"/>
+    <col min="2" max="2" width="35.4140625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1565,88 +2639,186 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="50.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="11" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="13" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +2832,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1935,18 +3107,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2D241-1DA4-439D-8D9F-A90C0CFE79C9}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.4140625" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,270 +3186,830 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="60" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2291,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2646B94-A014-438F-8206-7737207BAF30}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2549,4 +4280,162 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D060E5-07C6-4CF7-880E-8762AE9DA83E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="15.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB119115-E359-4E59-84F8-9ABBBF91AD14}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="4" width="28.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/Localization.xlsx
+++ b/Boom/Excel/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861096B7-D431-44D5-B83A-3E3EDE73C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A1EB8-90DB-4A0B-9A08-55E66ABBD2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="4060" windowWidth="21810" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15620" yWindow="3850" windowWidth="21810" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="475">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1562,10 +1562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1578,10 +1574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戻る</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1867,6 +1859,78 @@
   </si>
   <si>
     <t>ui.display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゲーム保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゲーム読込</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在の言語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.curlanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamepad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コントローラー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.gamepad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2240,17 +2304,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF6FC77-4365-45F2-8268-A60FB972ED8C}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="4" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2269,86 +2334,86 @@
     </row>
     <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>381</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>382</v>
+        <v>465</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>386</v>
+        <v>466</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
@@ -2356,13 +2421,13 @@
         <v>456</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,13 +2435,13 @@
         <v>455</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
@@ -2384,214 +2449,271 @@
         <v>454</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>453</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>428</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>442</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>452</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>453</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>426</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>448</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>449</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>391</v>
+      <c r="A21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>392</v>
+      <c r="A22" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>395</v>
+      <c r="A23" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>397</v>
+      <c r="C28" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4309,36 +4431,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -4377,53 +4499,53 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3"/>
     </row>
